--- a/rankings-to-date.xlsx
+++ b/rankings-to-date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alansun/Documents/19-20/varsity swimmin/isb-varsity-swimming-rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4D6CEC-A10D-B34A-B9C7-157720954C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801C556-7AFC-CD49-9103-8AD0D4F9271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{13077E5F-9E70-7144-8AEE-7A649CDE6306}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{13077E5F-9E70-7144-8AEE-7A649CDE6306}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A47F1-213F-184D-8EE4-A22310B61320}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f>SUMPRODUCT((D2=D$3:D$291)*(E2=E$3:E$291)*(B2&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A2:A65" si="0">SUMPRODUCT((D2=D$3:D$291)*(E2=E$3:E$291)*(B2&gt;B$3:B$291))+1</f>
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>SUMPRODUCT((D3=D$3:D$291)*(E3=E$3:E$291)*(B3&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1297,7 +1297,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>SUMPRODUCT((D4=D$3:D$291)*(E4=E$3:E$291)*(B4&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1318,7 +1318,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f>SUMPRODUCT((D5=D$3:D$291)*(E5=E$3:E$291)*(B5&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -1339,7 +1339,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>SUMPRODUCT((D6=D$3:D$291)*(E6=E$3:E$291)*(B6&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="2">
@@ -1360,7 +1360,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>SUMPRODUCT((D7=D$3:D$291)*(E7=E$3:E$291)*(B7&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>SUMPRODUCT((D8=D$3:D$291)*(E8=E$3:E$291)*(B8&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1402,7 +1402,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>SUMPRODUCT((D9=D$3:D$291)*(E9=E$3:E$291)*(B9&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="6">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>SUMPRODUCT((D10=D$3:D$291)*(E10=E$3:E$291)*(B10&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="3">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>SUMPRODUCT((D11=D$3:D$291)*(E11=E$3:E$291)*(B11&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1465,7 +1465,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>SUMPRODUCT((D12=D$3:D$291)*(E12=E$3:E$291)*(B12&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="2">
@@ -1486,7 +1486,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>SUMPRODUCT((D13=D$3:D$291)*(E13=E$3:E$291)*(B13&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>SUMPRODUCT((D14=D$3:D$291)*(E14=E$3:E$291)*(B14&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1528,7 +1528,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>SUMPRODUCT((D15=D$3:D$291)*(E15=E$3:E$291)*(B15&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15" s="2">
@@ -1549,7 +1549,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>SUMPRODUCT((D16=D$3:D$291)*(E16=E$3:E$291)*(B16&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B16" s="2">
@@ -1570,7 +1570,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f>SUMPRODUCT((D17=D$3:D$291)*(E17=E$3:E$291)*(B17&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B17" s="2">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f>SUMPRODUCT((D18=D$3:D$291)*(E18=E$3:E$291)*(B18&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f>SUMPRODUCT((D19=D$3:D$291)*(E19=E$3:E$291)*(B19&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B19" s="6">
@@ -1633,7 +1633,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f>SUMPRODUCT((D20=D$3:D$291)*(E20=E$3:E$291)*(B20&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f>SUMPRODUCT((D21=D$3:D$291)*(E21=E$3:E$291)*(B21&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1675,7 +1675,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f>SUMPRODUCT((D22=D$3:D$291)*(E22=E$3:E$291)*(B22&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1696,7 +1696,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f>SUMPRODUCT((D23=D$3:D$291)*(E23=E$3:E$291)*(B23&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f>SUMPRODUCT((D24=D$3:D$291)*(E24=E$3:E$291)*(B24&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1738,7 +1738,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f>SUMPRODUCT((D25=D$3:D$291)*(E25=E$3:E$291)*(B25&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B25" s="2">
@@ -1759,7 +1759,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f>SUMPRODUCT((D26=D$3:D$291)*(E26=E$3:E$291)*(B26&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B26" s="2">
@@ -1780,7 +1780,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f>SUMPRODUCT((D27=D$3:D$291)*(E27=E$3:E$291)*(B27&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1801,7 +1801,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f>SUMPRODUCT((D28=D$3:D$291)*(E28=E$3:E$291)*(B28&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B28" s="3">
@@ -1822,7 +1822,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f>SUMPRODUCT((D29=D$3:D$291)*(E29=E$3:E$291)*(B29&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B29" s="2">
@@ -1843,7 +1843,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f>SUMPRODUCT((D30=D$3:D$291)*(E30=E$3:E$291)*(B30&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B30" s="6">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f>SUMPRODUCT((D31=D$3:D$291)*(E31=E$3:E$291)*(B31&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1885,7 +1885,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f>SUMPRODUCT((D32=D$3:D$291)*(E32=E$3:E$291)*(B32&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1906,7 +1906,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f>SUMPRODUCT((D33=D$3:D$291)*(E33=E$3:E$291)*(B33&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1927,7 +1927,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f>SUMPRODUCT((D34=D$3:D$291)*(E34=E$3:E$291)*(B34&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B34" s="2">
@@ -1948,7 +1948,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f>SUMPRODUCT((D35=D$3:D$291)*(E35=E$3:E$291)*(B35&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B35" s="6">
@@ -1969,7 +1969,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f>SUMPRODUCT((D36=D$3:D$291)*(E36=E$3:E$291)*(B36&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B36" s="2">
@@ -1990,7 +1990,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f>SUMPRODUCT((D37=D$3:D$291)*(E37=E$3:E$291)*(B37&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2011,7 +2011,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f>SUMPRODUCT((D38=D$3:D$291)*(E38=E$3:E$291)*(B38&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B38" s="2">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f>SUMPRODUCT((D39=D$3:D$291)*(E39=E$3:E$291)*(B39&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B39" s="2">
@@ -2053,7 +2053,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f>SUMPRODUCT((D40=D$3:D$291)*(E40=E$3:E$291)*(B40&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2074,7 +2074,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f>SUMPRODUCT((D41=D$3:D$291)*(E41=E$3:E$291)*(B41&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2095,7 +2095,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f>SUMPRODUCT((D42=D$3:D$291)*(E42=E$3:E$291)*(B42&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2116,7 +2116,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f>SUMPRODUCT((D43=D$3:D$291)*(E43=E$3:E$291)*(B43&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B43" s="2">
@@ -2137,7 +2137,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f>SUMPRODUCT((D44=D$3:D$291)*(E44=E$3:E$291)*(B44&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f>SUMPRODUCT((D45=D$3:D$291)*(E45=E$3:E$291)*(B45&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2179,7 +2179,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f>SUMPRODUCT((D46=D$3:D$291)*(E46=E$3:E$291)*(B46&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2200,7 +2200,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f>SUMPRODUCT((D47=D$3:D$291)*(E47=E$3:E$291)*(B47&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B47" s="3">
@@ -2221,7 +2221,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f>SUMPRODUCT((D48=D$3:D$291)*(E48=E$3:E$291)*(B48&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B48" s="3">
@@ -2242,7 +2242,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f>SUMPRODUCT((D49=D$3:D$291)*(E49=E$3:E$291)*(B49&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B49" s="2">
@@ -2263,7 +2263,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <f>SUMPRODUCT((D50=D$3:D$291)*(E50=E$3:E$291)*(B50&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2284,7 +2284,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f>SUMPRODUCT((D51=D$3:D$291)*(E51=E$3:E$291)*(B51&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -2305,7 +2305,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <f>SUMPRODUCT((D52=D$3:D$291)*(E52=E$3:E$291)*(B52&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B52" s="6">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f>SUMPRODUCT((D53=D$3:D$291)*(E53=E$3:E$291)*(B53&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B53" s="2">
@@ -2347,7 +2347,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f>SUMPRODUCT((D54=D$3:D$291)*(E54=E$3:E$291)*(B54&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B54" s="3">
@@ -2368,7 +2368,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f>SUMPRODUCT((D55=D$3:D$291)*(E55=E$3:E$291)*(B55&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B55" s="3">
@@ -2389,7 +2389,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f>SUMPRODUCT((D56=D$3:D$291)*(E56=E$3:E$291)*(B56&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2410,7 +2410,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f>SUMPRODUCT((D57=D$3:D$291)*(E57=E$3:E$291)*(B57&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2431,7 +2431,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f>SUMPRODUCT((D58=D$3:D$291)*(E58=E$3:E$291)*(B58&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2452,7 +2452,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f>SUMPRODUCT((D59=D$3:D$291)*(E59=E$3:E$291)*(B59&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2473,7 +2473,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f>SUMPRODUCT((D60=D$3:D$291)*(E60=E$3:E$291)*(B60&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2494,7 +2494,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f>SUMPRODUCT((D61=D$3:D$291)*(E61=E$3:E$291)*(B61&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B61" s="3">
@@ -2515,7 +2515,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <f>SUMPRODUCT((D62=D$3:D$291)*(E62=E$3:E$291)*(B62&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <f>SUMPRODUCT((D63=D$3:D$291)*(E63=E$3:E$291)*(B63&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B63" s="2">
@@ -2557,7 +2557,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <f>SUMPRODUCT((D64=D$3:D$291)*(E64=E$3:E$291)*(B64&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2578,7 +2578,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <f>SUMPRODUCT((D65=D$3:D$291)*(E65=E$3:E$291)*(B65&gt;B$3:B$291))+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2599,7 +2599,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <f>SUMPRODUCT((D66=D$3:D$291)*(E66=E$3:E$291)*(B66&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A66:A129" si="1">SUMPRODUCT((D66=D$3:D$291)*(E66=E$3:E$291)*(B66&gt;B$3:B$291))+1</f>
         <v>10</v>
       </c>
       <c r="B66" s="2">
@@ -2620,7 +2620,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <f>SUMPRODUCT((D67=D$3:D$291)*(E67=E$3:E$291)*(B67&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2641,7 +2641,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <f>SUMPRODUCT((D68=D$3:D$291)*(E68=E$3:E$291)*(B68&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2662,7 +2662,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <f>SUMPRODUCT((D69=D$3:D$291)*(E69=E$3:E$291)*(B69&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B69" s="2">
@@ -2683,7 +2683,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <f>SUMPRODUCT((D70=D$3:D$291)*(E70=E$3:E$291)*(B70&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2704,7 +2704,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <f>SUMPRODUCT((D71=D$3:D$291)*(E71=E$3:E$291)*(B71&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B71" s="2">
@@ -2725,7 +2725,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <f>SUMPRODUCT((D72=D$3:D$291)*(E72=E$3:E$291)*(B72&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2746,7 +2746,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <f>SUMPRODUCT((D73=D$3:D$291)*(E73=E$3:E$291)*(B73&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B73" s="2">
@@ -2767,7 +2767,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <f>SUMPRODUCT((D74=D$3:D$291)*(E74=E$3:E$291)*(B74&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B74" s="3">
@@ -2788,7 +2788,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <f>SUMPRODUCT((D75=D$3:D$291)*(E75=E$3:E$291)*(B75&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B75" s="3">
@@ -2809,7 +2809,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <f>SUMPRODUCT((D76=D$3:D$291)*(E76=E$3:E$291)*(B76&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B76" s="3">
@@ -2830,7 +2830,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <f>SUMPRODUCT((D77=D$3:D$291)*(E77=E$3:E$291)*(B77&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2851,7 +2851,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <f>SUMPRODUCT((D78=D$3:D$291)*(E78=E$3:E$291)*(B78&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B78" s="6">
@@ -2872,7 +2872,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <f>SUMPRODUCT((D79=D$3:D$291)*(E79=E$3:E$291)*(B79&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2893,7 +2893,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f>SUMPRODUCT((D80=D$3:D$291)*(E80=E$3:E$291)*(B80&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2914,7 +2914,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <f>SUMPRODUCT((D81=D$3:D$291)*(E81=E$3:E$291)*(B81&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B81" s="3">
@@ -2935,7 +2935,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <f>SUMPRODUCT((D82=D$3:D$291)*(E82=E$3:E$291)*(B82&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B82" s="3">
@@ -2956,7 +2956,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <f>SUMPRODUCT((D83=D$3:D$291)*(E83=E$3:E$291)*(B83&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -2977,7 +2977,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <f>SUMPRODUCT((D84=D$3:D$291)*(E84=E$3:E$291)*(B84&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -2998,7 +2998,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <f>SUMPRODUCT((D85=D$3:D$291)*(E85=E$3:E$291)*(B85&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3019,7 +3019,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <f>SUMPRODUCT((D86=D$3:D$291)*(E86=E$3:E$291)*(B86&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3040,7 +3040,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <f>SUMPRODUCT((D87=D$3:D$291)*(E87=E$3:E$291)*(B87&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B87" s="3">
@@ -3061,7 +3061,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <f>SUMPRODUCT((D88=D$3:D$291)*(E88=E$3:E$291)*(B88&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3082,7 +3082,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <f>SUMPRODUCT((D89=D$3:D$291)*(E89=E$3:E$291)*(B89&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B89" s="2">
@@ -3103,7 +3103,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <f>SUMPRODUCT((D90=D$3:D$291)*(E90=E$3:E$291)*(B90&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B90" s="2">
@@ -3124,7 +3124,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <f>SUMPRODUCT((D91=D$3:D$291)*(E91=E$3:E$291)*(B91&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3145,7 +3145,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <f>SUMPRODUCT((D92=D$3:D$291)*(E92=E$3:E$291)*(B92&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3166,7 +3166,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <f>SUMPRODUCT((D93=D$3:D$291)*(E93=E$3:E$291)*(B93&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B93" s="2">
@@ -3187,7 +3187,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <f>SUMPRODUCT((D94=D$3:D$291)*(E94=E$3:E$291)*(B94&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B94" s="2">
@@ -3208,7 +3208,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <f>SUMPRODUCT((D95=D$3:D$291)*(E95=E$3:E$291)*(B95&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B95" s="2">
@@ -3229,7 +3229,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <f>SUMPRODUCT((D96=D$3:D$291)*(E96=E$3:E$291)*(B96&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B96" s="2">
@@ -3250,7 +3250,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <f>SUMPRODUCT((D97=D$3:D$291)*(E97=E$3:E$291)*(B97&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3271,7 +3271,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <f>SUMPRODUCT((D98=D$3:D$291)*(E98=E$3:E$291)*(B98&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3292,7 +3292,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <f>SUMPRODUCT((D99=D$3:D$291)*(E99=E$3:E$291)*(B99&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3313,7 +3313,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <f>SUMPRODUCT((D100=D$3:D$291)*(E100=E$3:E$291)*(B100&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3334,7 +3334,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <f>SUMPRODUCT((D101=D$3:D$291)*(E101=E$3:E$291)*(B101&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3355,7 +3355,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <f>SUMPRODUCT((D102=D$3:D$291)*(E102=E$3:E$291)*(B102&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B102" s="6">
@@ -3376,7 +3376,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <f>SUMPRODUCT((D103=D$3:D$291)*(E103=E$3:E$291)*(B103&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B103" s="2">
@@ -3397,7 +3397,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <f>SUMPRODUCT((D104=D$3:D$291)*(E104=E$3:E$291)*(B104&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B104" s="2">
@@ -3418,7 +3418,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <f>SUMPRODUCT((D105=D$3:D$291)*(E105=E$3:E$291)*(B105&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B105" s="3">
@@ -3439,7 +3439,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <f>SUMPRODUCT((D106=D$3:D$291)*(E106=E$3:E$291)*(B106&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3460,7 +3460,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <f>SUMPRODUCT((D107=D$3:D$291)*(E107=E$3:E$291)*(B107&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3481,7 +3481,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <f>SUMPRODUCT((D108=D$3:D$291)*(E108=E$3:E$291)*(B108&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B108" s="2">
@@ -3502,7 +3502,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <f>SUMPRODUCT((D109=D$3:D$291)*(E109=E$3:E$291)*(B109&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3523,7 +3523,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <f>SUMPRODUCT((D110=D$3:D$291)*(E110=E$3:E$291)*(B110&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B110" s="2">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <f>SUMPRODUCT((D111=D$3:D$291)*(E111=E$3:E$291)*(B111&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3565,7 +3565,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <f>SUMPRODUCT((D112=D$3:D$291)*(E112=E$3:E$291)*(B112&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3586,7 +3586,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <f>SUMPRODUCT((D113=D$3:D$291)*(E113=E$3:E$291)*(B113&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B113" s="3">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <f>SUMPRODUCT((D114=D$3:D$291)*(E114=E$3:E$291)*(B114&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B114" s="2">
@@ -3628,7 +3628,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <f>SUMPRODUCT((D115=D$3:D$291)*(E115=E$3:E$291)*(B115&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B115" s="3">
@@ -3649,7 +3649,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <f>SUMPRODUCT((D116=D$3:D$291)*(E116=E$3:E$291)*(B116&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3670,7 +3670,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <f>SUMPRODUCT((D117=D$3:D$291)*(E117=E$3:E$291)*(B117&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3691,7 +3691,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <f>SUMPRODUCT((D118=D$3:D$291)*(E118=E$3:E$291)*(B118&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B118" s="2">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <f>SUMPRODUCT((D119=D$3:D$291)*(E119=E$3:E$291)*(B119&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3733,7 +3733,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <f>SUMPRODUCT((D120=D$3:D$291)*(E120=E$3:E$291)*(B120&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3754,7 +3754,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <f>SUMPRODUCT((D121=D$3:D$291)*(E121=E$3:E$291)*(B121&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3775,7 +3775,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <f>SUMPRODUCT((D122=D$3:D$291)*(E122=E$3:E$291)*(B122&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B122" s="3">
@@ -3796,7 +3796,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <f>SUMPRODUCT((D123=D$3:D$291)*(E123=E$3:E$291)*(B123&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3817,7 +3817,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <f>SUMPRODUCT((D124=D$3:D$291)*(E124=E$3:E$291)*(B124&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B124" s="2">
@@ -3838,7 +3838,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <f>SUMPRODUCT((D125=D$3:D$291)*(E125=E$3:E$291)*(B125&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B125" s="2">
@@ -3859,7 +3859,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <f>SUMPRODUCT((D126=D$3:D$291)*(E126=E$3:E$291)*(B126&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3880,7 +3880,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <f>SUMPRODUCT((D127=D$3:D$291)*(E127=E$3:E$291)*(B127&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3901,7 +3901,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <f>SUMPRODUCT((D128=D$3:D$291)*(E128=E$3:E$291)*(B128&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -3922,7 +3922,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <f>SUMPRODUCT((D129=D$3:D$291)*(E129=E$3:E$291)*(B129&gt;B$3:B$291))+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B129" s="2">
@@ -3943,7 +3943,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <f>SUMPRODUCT((D130=D$3:D$291)*(E130=E$3:E$291)*(B130&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A130:A193" si="2">SUMPRODUCT((D130=D$3:D$291)*(E130=E$3:E$291)*(B130&gt;B$3:B$291))+1</f>
         <v>12</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -3964,7 +3964,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <f>SUMPRODUCT((D131=D$3:D$291)*(E131=E$3:E$291)*(B131&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B131" s="2">
@@ -3985,7 +3985,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <f>SUMPRODUCT((D132=D$3:D$291)*(E132=E$3:E$291)*(B132&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B132" s="2">
@@ -4006,7 +4006,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <f>SUMPRODUCT((D133=D$3:D$291)*(E133=E$3:E$291)*(B133&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B133" s="6">
@@ -4027,7 +4027,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <f>SUMPRODUCT((D134=D$3:D$291)*(E134=E$3:E$291)*(B134&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4048,7 +4048,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <f>SUMPRODUCT((D135=D$3:D$291)*(E135=E$3:E$291)*(B135&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4069,7 +4069,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <f>SUMPRODUCT((D136=D$3:D$291)*(E136=E$3:E$291)*(B136&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4090,7 +4090,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <f>SUMPRODUCT((D137=D$3:D$291)*(E137=E$3:E$291)*(B137&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4111,7 +4111,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <f>SUMPRODUCT((D138=D$3:D$291)*(E138=E$3:E$291)*(B138&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B138" s="2">
@@ -4132,7 +4132,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <f>SUMPRODUCT((D139=D$3:D$291)*(E139=E$3:E$291)*(B139&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4153,7 +4153,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <f>SUMPRODUCT((D140=D$3:D$291)*(E140=E$3:E$291)*(B140&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B140" s="2">
@@ -4174,7 +4174,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <f>SUMPRODUCT((D141=D$3:D$291)*(E141=E$3:E$291)*(B141&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4195,7 +4195,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <f>SUMPRODUCT((D142=D$3:D$291)*(E142=E$3:E$291)*(B142&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B142" s="2">
@@ -4216,7 +4216,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <f>SUMPRODUCT((D143=D$3:D$291)*(E143=E$3:E$291)*(B143&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4237,7 +4237,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <f>SUMPRODUCT((D144=D$3:D$291)*(E144=E$3:E$291)*(B144&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4258,7 +4258,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <f>SUMPRODUCT((D145=D$3:D$291)*(E145=E$3:E$291)*(B145&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4279,7 +4279,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <f>SUMPRODUCT((D146=D$3:D$291)*(E146=E$3:E$291)*(B146&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B146" s="2">
@@ -4300,7 +4300,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <f>SUMPRODUCT((D147=D$3:D$291)*(E147=E$3:E$291)*(B147&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4321,7 +4321,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <f>SUMPRODUCT((D148=D$3:D$291)*(E148=E$3:E$291)*(B148&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4342,7 +4342,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <f>SUMPRODUCT((D149=D$3:D$291)*(E149=E$3:E$291)*(B149&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B149" s="2">
@@ -4363,7 +4363,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <f>SUMPRODUCT((D150=D$3:D$291)*(E150=E$3:E$291)*(B150&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B150" s="2">
@@ -4384,7 +4384,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <f>SUMPRODUCT((D151=D$3:D$291)*(E151=E$3:E$291)*(B151&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4405,7 +4405,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <f>SUMPRODUCT((D152=D$3:D$291)*(E152=E$3:E$291)*(B152&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4426,7 +4426,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <f>SUMPRODUCT((D153=D$3:D$291)*(E153=E$3:E$291)*(B153&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B153" s="2">
@@ -4447,7 +4447,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <f>SUMPRODUCT((D154=D$3:D$291)*(E154=E$3:E$291)*(B154&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B154" s="6">
@@ -4468,7 +4468,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <f>SUMPRODUCT((D155=D$3:D$291)*(E155=E$3:E$291)*(B155&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4489,7 +4489,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <f>SUMPRODUCT((D156=D$3:D$291)*(E156=E$3:E$291)*(B156&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B156" s="2">
@@ -4510,7 +4510,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <f>SUMPRODUCT((D157=D$3:D$291)*(E157=E$3:E$291)*(B157&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B157" s="2">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <f>SUMPRODUCT((D158=D$3:D$291)*(E158=E$3:E$291)*(B158&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4552,7 +4552,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <f>SUMPRODUCT((D159=D$3:D$291)*(E159=E$3:E$291)*(B159&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B159" s="2">
@@ -4573,7 +4573,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <f>SUMPRODUCT((D160=D$3:D$291)*(E160=E$3:E$291)*(B160&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <f>SUMPRODUCT((D161=D$3:D$291)*(E161=E$3:E$291)*(B161&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4615,7 +4615,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <f>SUMPRODUCT((D162=D$3:D$291)*(E162=E$3:E$291)*(B162&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4636,7 +4636,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <f>SUMPRODUCT((D163=D$3:D$291)*(E163=E$3:E$291)*(B163&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <f>SUMPRODUCT((D164=D$3:D$291)*(E164=E$3:E$291)*(B164&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4678,7 +4678,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <f>SUMPRODUCT((D165=D$3:D$291)*(E165=E$3:E$291)*(B165&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4699,7 +4699,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <f>SUMPRODUCT((D166=D$3:D$291)*(E166=E$3:E$291)*(B166&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4720,7 +4720,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <f>SUMPRODUCT((D167=D$3:D$291)*(E167=E$3:E$291)*(B167&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4741,7 +4741,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <f>SUMPRODUCT((D168=D$3:D$291)*(E168=E$3:E$291)*(B168&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4762,7 +4762,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <f>SUMPRODUCT((D169=D$3:D$291)*(E169=E$3:E$291)*(B169&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B169" s="2">
@@ -4783,7 +4783,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <f>SUMPRODUCT((D170=D$3:D$291)*(E170=E$3:E$291)*(B170&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B170" s="2">
@@ -4804,7 +4804,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <f>SUMPRODUCT((D171=D$3:D$291)*(E171=E$3:E$291)*(B171&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4825,7 +4825,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <f>SUMPRODUCT((D172=D$3:D$291)*(E172=E$3:E$291)*(B172&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4846,7 +4846,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <f>SUMPRODUCT((D173=D$3:D$291)*(E173=E$3:E$291)*(B173&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B173" s="3">
@@ -4867,7 +4867,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <f>SUMPRODUCT((D174=D$3:D$291)*(E174=E$3:E$291)*(B174&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B174" s="2">
@@ -4888,7 +4888,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <f>SUMPRODUCT((D175=D$3:D$291)*(E175=E$3:E$291)*(B175&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4909,7 +4909,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <f>SUMPRODUCT((D176=D$3:D$291)*(E176=E$3:E$291)*(B176&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B176" s="6">
@@ -4930,7 +4930,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <f>SUMPRODUCT((D177=D$3:D$291)*(E177=E$3:E$291)*(B177&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B177" s="3">
@@ -4951,7 +4951,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <f>SUMPRODUCT((D178=D$3:D$291)*(E178=E$3:E$291)*(B178&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B178" s="2">
@@ -4972,7 +4972,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <f>SUMPRODUCT((D179=D$3:D$291)*(E179=E$3:E$291)*(B179&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B179" s="2">
@@ -4993,7 +4993,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <f>SUMPRODUCT((D180=D$3:D$291)*(E180=E$3:E$291)*(B180&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B180" s="2">
@@ -5014,7 +5014,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <f>SUMPRODUCT((D181=D$3:D$291)*(E181=E$3:E$291)*(B181&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -5035,7 +5035,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <f>SUMPRODUCT((D182=D$3:D$291)*(E182=E$3:E$291)*(B182&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -5056,7 +5056,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <f>SUMPRODUCT((D183=D$3:D$291)*(E183=E$3:E$291)*(B183&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -5077,7 +5077,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <f>SUMPRODUCT((D184=D$3:D$291)*(E184=E$3:E$291)*(B184&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -5098,7 +5098,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <f>SUMPRODUCT((D185=D$3:D$291)*(E185=E$3:E$291)*(B185&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <f>SUMPRODUCT((D186=D$3:D$291)*(E186=E$3:E$291)*(B186&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -5140,7 +5140,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <f>SUMPRODUCT((D187=D$3:D$291)*(E187=E$3:E$291)*(B187&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B187" s="2">
@@ -5161,7 +5161,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <f>SUMPRODUCT((D188=D$3:D$291)*(E188=E$3:E$291)*(B188&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -5182,7 +5182,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <f>SUMPRODUCT((D189=D$3:D$291)*(E189=E$3:E$291)*(B189&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -5203,7 +5203,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <f>SUMPRODUCT((D190=D$3:D$291)*(E190=E$3:E$291)*(B190&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B190" s="2">
@@ -5224,7 +5224,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <f>SUMPRODUCT((D191=D$3:D$291)*(E191=E$3:E$291)*(B191&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -5245,7 +5245,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <f>SUMPRODUCT((D192=D$3:D$291)*(E192=E$3:E$291)*(B192&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -5266,7 +5266,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <f>SUMPRODUCT((D193=D$3:D$291)*(E193=E$3:E$291)*(B193&gt;B$3:B$291))+1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B193" s="2">
@@ -5287,7 +5287,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <f>SUMPRODUCT((D194=D$3:D$291)*(E194=E$3:E$291)*(B194&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A194:A257" si="3">SUMPRODUCT((D194=D$3:D$291)*(E194=E$3:E$291)*(B194&gt;B$3:B$291))+1</f>
         <v>11</v>
       </c>
       <c r="B194" s="2">
@@ -5308,7 +5308,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <f>SUMPRODUCT((D195=D$3:D$291)*(E195=E$3:E$291)*(B195&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -5329,7 +5329,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <f>SUMPRODUCT((D196=D$3:D$291)*(E196=E$3:E$291)*(B196&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B196" s="3">
@@ -5350,7 +5350,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <f>SUMPRODUCT((D197=D$3:D$291)*(E197=E$3:E$291)*(B197&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B197" s="2">
@@ -5371,7 +5371,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <f>SUMPRODUCT((D198=D$3:D$291)*(E198=E$3:E$291)*(B198&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -5392,7 +5392,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <f>SUMPRODUCT((D199=D$3:D$291)*(E199=E$3:E$291)*(B199&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -5413,7 +5413,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <f>SUMPRODUCT((D200=D$3:D$291)*(E200=E$3:E$291)*(B200&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -5434,7 +5434,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <f>SUMPRODUCT((D201=D$3:D$291)*(E201=E$3:E$291)*(B201&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -5455,7 +5455,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <f>SUMPRODUCT((D202=D$3:D$291)*(E202=E$3:E$291)*(B202&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B202" s="2">
@@ -5476,7 +5476,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <f>SUMPRODUCT((D203=D$3:D$291)*(E203=E$3:E$291)*(B203&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -5497,7 +5497,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <f>SUMPRODUCT((D204=D$3:D$291)*(E204=E$3:E$291)*(B204&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -5518,7 +5518,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <f>SUMPRODUCT((D205=D$3:D$291)*(E205=E$3:E$291)*(B205&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B205" s="2">
@@ -5539,7 +5539,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <f>SUMPRODUCT((D206=D$3:D$291)*(E206=E$3:E$291)*(B206&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B206" s="2">
@@ -5560,7 +5560,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <f>SUMPRODUCT((D207=D$3:D$291)*(E207=E$3:E$291)*(B207&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -5581,7 +5581,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <f>SUMPRODUCT((D208=D$3:D$291)*(E208=E$3:E$291)*(B208&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B208" s="3">
@@ -5602,7 +5602,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <f>SUMPRODUCT((D209=D$3:D$291)*(E209=E$3:E$291)*(B209&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -5623,7 +5623,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <f>SUMPRODUCT((D210=D$3:D$291)*(E210=E$3:E$291)*(B210&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -5644,7 +5644,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <f>SUMPRODUCT((D211=D$3:D$291)*(E211=E$3:E$291)*(B211&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B211" s="2">
@@ -5665,7 +5665,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <f>SUMPRODUCT((D212=D$3:D$291)*(E212=E$3:E$291)*(B212&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B212" s="2">
@@ -5686,7 +5686,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <f>SUMPRODUCT((D213=D$3:D$291)*(E213=E$3:E$291)*(B213&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -5707,7 +5707,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <f>SUMPRODUCT((D214=D$3:D$291)*(E214=E$3:E$291)*(B214&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -5728,7 +5728,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <f>SUMPRODUCT((D215=D$3:D$291)*(E215=E$3:E$291)*(B215&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -5749,7 +5749,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <f>SUMPRODUCT((D216=D$3:D$291)*(E216=E$3:E$291)*(B216&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B216" s="6">
@@ -5770,7 +5770,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <f>SUMPRODUCT((D217=D$3:D$291)*(E217=E$3:E$291)*(B217&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B217" s="2">
@@ -5791,7 +5791,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <f>SUMPRODUCT((D218=D$3:D$291)*(E218=E$3:E$291)*(B218&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -5812,7 +5812,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <f>SUMPRODUCT((D219=D$3:D$291)*(E219=E$3:E$291)*(B219&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -5833,7 +5833,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <f>SUMPRODUCT((D220=D$3:D$291)*(E220=E$3:E$291)*(B220&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B220" s="2">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <f>SUMPRODUCT((D221=D$3:D$291)*(E221=E$3:E$291)*(B221&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B221" s="2">
@@ -5875,7 +5875,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <f>SUMPRODUCT((D222=D$3:D$291)*(E222=E$3:E$291)*(B222&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5896,7 +5896,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <f>SUMPRODUCT((D223=D$3:D$291)*(E223=E$3:E$291)*(B223&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5917,7 +5917,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <f>SUMPRODUCT((D224=D$3:D$291)*(E224=E$3:E$291)*(B224&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5938,7 +5938,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <f>SUMPRODUCT((D225=D$3:D$291)*(E225=E$3:E$291)*(B225&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B225" s="2">
@@ -5959,7 +5959,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <f>SUMPRODUCT((D226=D$3:D$291)*(E226=E$3:E$291)*(B226&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5980,7 +5980,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <f>SUMPRODUCT((D227=D$3:D$291)*(E227=E$3:E$291)*(B227&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -6001,7 +6001,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <f>SUMPRODUCT((D228=D$3:D$291)*(E228=E$3:E$291)*(B228&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B228" s="2">
@@ -6022,7 +6022,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <f>SUMPRODUCT((D229=D$3:D$291)*(E229=E$3:E$291)*(B229&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B229" s="2">
@@ -6043,7 +6043,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <f>SUMPRODUCT((D230=D$3:D$291)*(E230=E$3:E$291)*(B230&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -6064,7 +6064,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <f>SUMPRODUCT((D231=D$3:D$291)*(E231=E$3:E$291)*(B231&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B231" s="2">
@@ -6085,7 +6085,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <f>SUMPRODUCT((D232=D$3:D$291)*(E232=E$3:E$291)*(B232&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -6106,7 +6106,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <f>SUMPRODUCT((D233=D$3:D$291)*(E233=E$3:E$291)*(B233&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -6127,7 +6127,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <f>SUMPRODUCT((D234=D$3:D$291)*(E234=E$3:E$291)*(B234&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -6148,7 +6148,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <f>SUMPRODUCT((D235=D$3:D$291)*(E235=E$3:E$291)*(B235&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B235" s="3">
@@ -6169,7 +6169,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <f>SUMPRODUCT((D236=D$3:D$291)*(E236=E$3:E$291)*(B236&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B236" s="2">
@@ -6190,7 +6190,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <f>SUMPRODUCT((D237=D$3:D$291)*(E237=E$3:E$291)*(B237&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B237" s="2">
@@ -6211,7 +6211,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <f>SUMPRODUCT((D238=D$3:D$291)*(E238=E$3:E$291)*(B238&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B238" s="7">
@@ -6232,7 +6232,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <f>SUMPRODUCT((D239=D$3:D$291)*(E239=E$3:E$291)*(B239&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B239" s="2">
@@ -6253,7 +6253,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <f>SUMPRODUCT((D240=D$3:D$291)*(E240=E$3:E$291)*(B240&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -6274,7 +6274,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <f>SUMPRODUCT((D241=D$3:D$291)*(E241=E$3:E$291)*(B241&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -6295,7 +6295,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <f>SUMPRODUCT((D242=D$3:D$291)*(E242=E$3:E$291)*(B242&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B242" s="2">
@@ -6316,7 +6316,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <f>SUMPRODUCT((D243=D$3:D$291)*(E243=E$3:E$291)*(B243&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B243" s="2">
@@ -6337,7 +6337,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <f>SUMPRODUCT((D244=D$3:D$291)*(E244=E$3:E$291)*(B244&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B244" s="3" t="s">
@@ -6358,7 +6358,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <f>SUMPRODUCT((D245=D$3:D$291)*(E245=E$3:E$291)*(B245&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -6379,7 +6379,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <f>SUMPRODUCT((D246=D$3:D$291)*(E246=E$3:E$291)*(B246&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -6400,7 +6400,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <f>SUMPRODUCT((D247=D$3:D$291)*(E247=E$3:E$291)*(B247&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -6421,7 +6421,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <f>SUMPRODUCT((D248=D$3:D$291)*(E248=E$3:E$291)*(B248&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -6442,7 +6442,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <f>SUMPRODUCT((D249=D$3:D$291)*(E249=E$3:E$291)*(B249&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -6463,7 +6463,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <f>SUMPRODUCT((D250=D$3:D$291)*(E250=E$3:E$291)*(B250&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B250" s="2">
@@ -6484,7 +6484,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <f>SUMPRODUCT((D251=D$3:D$291)*(E251=E$3:E$291)*(B251&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -6505,7 +6505,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <f>SUMPRODUCT((D252=D$3:D$291)*(E252=E$3:E$291)*(B252&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B252" s="6">
@@ -6526,7 +6526,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <f>SUMPRODUCT((D253=D$3:D$291)*(E253=E$3:E$291)*(B253&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B253" s="2">
@@ -6547,7 +6547,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <f>SUMPRODUCT((D254=D$3:D$291)*(E254=E$3:E$291)*(B254&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B254" s="2">
@@ -6568,7 +6568,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <f>SUMPRODUCT((D255=D$3:D$291)*(E255=E$3:E$291)*(B255&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -6589,7 +6589,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <f>SUMPRODUCT((D256=D$3:D$291)*(E256=E$3:E$291)*(B256&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -6610,7 +6610,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <f>SUMPRODUCT((D257=D$3:D$291)*(E257=E$3:E$291)*(B257&gt;B$3:B$291))+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -6631,7 +6631,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <f>SUMPRODUCT((D258=D$3:D$291)*(E258=E$3:E$291)*(B258&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A258:A321" si="4">SUMPRODUCT((D258=D$3:D$291)*(E258=E$3:E$291)*(B258&gt;B$3:B$291))+1</f>
         <v>9</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -6652,7 +6652,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <f>SUMPRODUCT((D259=D$3:D$291)*(E259=E$3:E$291)*(B259&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B259" s="2">
@@ -6673,7 +6673,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <f>SUMPRODUCT((D260=D$3:D$291)*(E260=E$3:E$291)*(B260&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B260" s="2">
@@ -6694,7 +6694,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <f>SUMPRODUCT((D261=D$3:D$291)*(E261=E$3:E$291)*(B261&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B261" s="2">
@@ -6715,7 +6715,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <f>SUMPRODUCT((D262=D$3:D$291)*(E262=E$3:E$291)*(B262&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -6736,7 +6736,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <f>SUMPRODUCT((D263=D$3:D$291)*(E263=E$3:E$291)*(B263&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -6757,7 +6757,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <f>SUMPRODUCT((D264=D$3:D$291)*(E264=E$3:E$291)*(B264&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B264" s="2">
@@ -6778,7 +6778,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <f>SUMPRODUCT((D265=D$3:D$291)*(E265=E$3:E$291)*(B265&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B265" s="2">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <f>SUMPRODUCT((D266=D$3:D$291)*(E266=E$3:E$291)*(B266&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -6820,7 +6820,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <f>SUMPRODUCT((D267=D$3:D$291)*(E267=E$3:E$291)*(B267&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <f>SUMPRODUCT((D268=D$3:D$291)*(E268=E$3:E$291)*(B268&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B268" s="2">
@@ -6862,7 +6862,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <f>SUMPRODUCT((D269=D$3:D$291)*(E269=E$3:E$291)*(B269&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -6883,7 +6883,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <f>SUMPRODUCT((D270=D$3:D$291)*(E270=E$3:E$291)*(B270&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B270" s="3">
@@ -6904,7 +6904,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <f>SUMPRODUCT((D271=D$3:D$291)*(E271=E$3:E$291)*(B271&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -6925,7 +6925,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <f>SUMPRODUCT((D272=D$3:D$291)*(E272=E$3:E$291)*(B272&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B272" s="3">
@@ -6946,7 +6946,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <f>SUMPRODUCT((D273=D$3:D$291)*(E273=E$3:E$291)*(B273&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -6967,7 +6967,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <f>SUMPRODUCT((D274=D$3:D$291)*(E274=E$3:E$291)*(B274&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B274" s="2">
@@ -6988,7 +6988,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <f>SUMPRODUCT((D275=D$3:D$291)*(E275=E$3:E$291)*(B275&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -7009,7 +7009,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <f>SUMPRODUCT((D276=D$3:D$291)*(E276=E$3:E$291)*(B276&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B276" s="2">
@@ -7030,7 +7030,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <f>SUMPRODUCT((D277=D$3:D$291)*(E277=E$3:E$291)*(B277&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -7051,7 +7051,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <f>SUMPRODUCT((D278=D$3:D$291)*(E278=E$3:E$291)*(B278&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -7072,7 +7072,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <f>SUMPRODUCT((D279=D$3:D$291)*(E279=E$3:E$291)*(B279&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B279" s="3">
@@ -7093,7 +7093,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <f>SUMPRODUCT((D280=D$3:D$291)*(E280=E$3:E$291)*(B280&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -7114,7 +7114,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <f>SUMPRODUCT((D281=D$3:D$291)*(E281=E$3:E$291)*(B281&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -7135,7 +7135,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <f>SUMPRODUCT((D282=D$3:D$291)*(E282=E$3:E$291)*(B282&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B282" s="2">
@@ -7156,7 +7156,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <f>SUMPRODUCT((D283=D$3:D$291)*(E283=E$3:E$291)*(B283&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B283" s="2">
@@ -7177,7 +7177,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <f>SUMPRODUCT((D284=D$3:D$291)*(E284=E$3:E$291)*(B284&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B284" s="2">
@@ -7198,7 +7198,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <f>SUMPRODUCT((D285=D$3:D$291)*(E285=E$3:E$291)*(B285&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B285" s="2">
@@ -7219,7 +7219,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <f>SUMPRODUCT((D286=D$3:D$291)*(E286=E$3:E$291)*(B286&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B286" s="2">
@@ -7240,7 +7240,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <f>SUMPRODUCT((D287=D$3:D$291)*(E287=E$3:E$291)*(B287&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B287" s="2">
@@ -7261,7 +7261,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <f>SUMPRODUCT((D288=D$3:D$291)*(E288=E$3:E$291)*(B288&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B288" s="6">
@@ -7282,7 +7282,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <f>SUMPRODUCT((D289=D$3:D$291)*(E289=E$3:E$291)*(B289&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -7303,7 +7303,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <f>SUMPRODUCT((D290=D$3:D$291)*(E290=E$3:E$291)*(B290&gt;B$3:B$291))+1</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B290" s="2" t="s">

--- a/rankings-to-date.xlsx
+++ b/rankings-to-date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alansun/Documents/19-20/varsity swimmin/isb-varsity-swimming-rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801C556-7AFC-CD49-9103-8AD0D4F9271C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2943F49-06E4-6644-A55E-42FB146D557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{13077E5F-9E70-7144-8AEE-7A649CDE6306}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A47F1-213F-184D-8EE4-A22310B61320}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <f t="shared" ref="A258:A321" si="4">SUMPRODUCT((D258=D$3:D$291)*(E258=E$3:E$291)*(B258&gt;B$3:B$291))+1</f>
+        <f t="shared" ref="A258:A290" si="4">SUMPRODUCT((D258=D$3:D$291)*(E258=E$3:E$291)*(B258&gt;B$3:B$291))+1</f>
         <v>9</v>
       </c>
       <c r="B258" s="2" t="s">

--- a/rankings-to-date.xlsx
+++ b/rankings-to-date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alansun/Documents/19-20/varsity swimmin/isb-varsity-swimming-rankings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2943F49-06E4-6644-A55E-42FB146D557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842F8A35-35AC-3448-8C84-20F81932393B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{13077E5F-9E70-7144-8AEE-7A649CDE6306}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A47F1-213F-184D-8EE4-A22310B61320}">
   <dimension ref="A1:F290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
